--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>002190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>农银汇理新能源主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.39</t>
+          <t>153.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.33</t>
+          <t>78.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>180031</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>银华中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>76.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>47.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>660003</t>
+          <t>660001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银平衡双利混合</t>
+          <t>农银行业成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.60</t>
+          <t>22.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>660004</t>
+          <t>005794</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银策略价值混合</t>
+          <t>银华心怡灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>160142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>207.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.08</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8914</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>002083</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>新华鑫动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>16.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>86.07</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.67</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>007346</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>易方达科技创新混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>481015</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银主题策略混合</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>94.71</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>481015</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>工银主题策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>660001</t>
+          <t>002084</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>农银行业成长混合A</t>
+          <t>新华鑫动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001303</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合A</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001656</t>
+          <t>660005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>农银汇理中国优势灵活配置混合</t>
+          <t>农银中小盘混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>001728</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>银华战略新兴灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002083</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>新华鑫动力灵活配置混合A</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002084</t>
+          <t>660004</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新华鑫动力灵活配置混合C</t>
+          <t>农银策略价值混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>660003</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>农银平衡双利混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002190</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>农银汇理新能源主题灵活配置混合</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>69.94</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002323</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合C</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002844</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金鹰多元策略灵活配置混合</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.14</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>001303</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>银华稳利灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>001656</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>农银汇理中国优势灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005118</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合C</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008078</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>农银汇理区间精选灵活配置混合</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>83.99</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007346</t>
+          <t>002844</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>易方达科技创新混合</t>
+          <t>金鹰多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>72.39</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>008078</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>农银汇理区间精选灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001728</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>160142</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1444,26 +1792,34 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>002323</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>38.42</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,15 +1854,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1518,26 +1884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007346</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科技创新混合</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>46.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7458</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1546,26 +1922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005492</t>
+          <t>180031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
+          <t>银华中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.98</t>
+          <t>54.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1574,26 +1960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005250</t>
+          <t>160142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华估值优势混合</t>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>209.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1602,26 +1998,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008078</t>
+          <t>660001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银汇理区间精选灵活配置混合</t>
+          <t>农银行业成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.86</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1630,26 +2036,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1658,26 +2074,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>007346</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>易方达科技创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1686,26 +2112,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>660005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>农银中小盘混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1714,26 +2150,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160142</t>
+          <t>005250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>银华估值优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1742,26 +2188,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1770,26 +2226,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>660001</t>
+          <t>005492</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银行业成长混合A</t>
+          <t>农银汇理研究驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>67.85</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1798,26 +2264,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>008078</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>农银汇理区间精选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>61.51</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1826,26 +2302,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>005848</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>银华裕利混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1864,15 +2350,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>43.95</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1892,15 +2388,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>43.95</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1910,26 +2416,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005848</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华裕利混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2424,7 +2425,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -2439,6 +2439,1162 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003319</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003320</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3601,4 +3602,1922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5520,4 +5521,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5529,7 +5530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5540,17 +5541,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5560,14 +5581,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.6</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5576,14 +5619,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.41</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5592,14 +5657,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.99</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5608,13 +5695,1747 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8869</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7810</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7334,7 +7335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7345,17 +7346,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7365,14 +7386,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.87</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.2523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7381,14 +7424,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.6</v>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7397,14 +7462,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.41</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7413,14 +7500,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.99</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7429,13 +7538,2103 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2178</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0268</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7618</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6073</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9517,7 +9518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9528,17 +9529,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9548,14 +9569,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.8</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9564,14 +9607,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.87</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9580,14 +9645,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.6</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9596,14 +9683,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.41</v>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9612,14 +9721,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.99</v>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -9628,13 +9759,2615 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4898</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1750</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8608</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1808</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9381</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5216</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>44.53</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>40.8</v>
+        <v>44.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>22.87</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>23.6</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>11.41</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>8.99</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29.81</v>
       </c>
     </row>
@@ -600,6 +617,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3315,7 +4832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5497,7 +7014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7301,7 +8818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9219,7 +10736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10375,7 +11892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10994,7 +12511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
+++ b/数据整理/stocks/A股/深证主板/002850-科达利.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
-        <v>4.82</v>
+        <v>30.71</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>44.53</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>40.8</v>
+        <v>44.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>22.87</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>23.6</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>11.41</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>8.99</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>29.81</v>
       </c>
     </row>
@@ -616,7 +633,4897 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8914</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008078</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理区间精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016709</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泉果旭源三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2486</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7790</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4927</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016710</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泉果旭源三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015627</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国新国证融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016494</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国新国证融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015628</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +7023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4832,7 +9739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7014,7 +11921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8818,7 +13725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10736,7 +15643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11892,7 +16799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12509,1386 +17416,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银汇理新能源主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>153.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.8193</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000404</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达新兴成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>78.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.7345</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>180031</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.2964</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>47.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.1480</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>660001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银行业成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.8056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005794</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华心怡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>38.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.6783</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>207.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4296</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8914</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002083</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8311</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.8126</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7486</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007346</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6131</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5814</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5247</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002084</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4251</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3761</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3355</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>660005</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3163</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1921</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1873</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>660004</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银策略价值混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1591</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>660003</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>农银平衡双利混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>78.60</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1397</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1153</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1143</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1061</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001656</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>农银汇理中国优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0901</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>501097</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>38.42</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0754</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002844</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金鹰多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>81.14</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008078</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>农银汇理区间精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>83.99</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>